--- a/Code/Results/Cases/Case_3_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_79/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.937784329581802</v>
+        <v>1.101729968414588</v>
       </c>
       <c r="C2">
-        <v>0.9640894123156443</v>
+        <v>0.3226985537384337</v>
       </c>
       <c r="D2">
-        <v>0.2509852670602015</v>
+        <v>0.2735004925934419</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.290418923032533</v>
+        <v>1.484329595726805</v>
       </c>
       <c r="G2">
-        <v>0.8656718885267622</v>
+        <v>0.8165580542823108</v>
       </c>
       <c r="H2">
-        <v>0.5205510532623947</v>
+        <v>0.8445637225456437</v>
       </c>
       <c r="I2">
-        <v>0.3357281184915948</v>
+        <v>0.5751832815021061</v>
       </c>
       <c r="J2">
-        <v>0.4460555725225532</v>
+        <v>0.3485596430322886</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5721256852364078</v>
+        <v>1.02719948783637</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.546486179883175</v>
+        <v>0.9902222696572949</v>
       </c>
       <c r="C3">
-        <v>0.8347022409083991</v>
+        <v>0.2859861336109759</v>
       </c>
       <c r="D3">
-        <v>0.2231415497713414</v>
+        <v>0.2674005364426364</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.169343332940358</v>
+        <v>1.467441684983953</v>
       </c>
       <c r="G3">
-        <v>0.7769823454175508</v>
+        <v>0.8028150664091243</v>
       </c>
       <c r="H3">
-        <v>0.4873932624969939</v>
+        <v>0.8439880063391456</v>
       </c>
       <c r="I3">
-        <v>0.3214053581601632</v>
+        <v>0.5781526834932151</v>
       </c>
       <c r="J3">
-        <v>0.3925381515107347</v>
+        <v>0.3371667947527044</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6024954848598654</v>
+        <v>1.039502143921151</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.307643415116047</v>
+        <v>0.9219430868801624</v>
       </c>
       <c r="C4">
-        <v>0.755840030067958</v>
+        <v>0.2634805851665192</v>
       </c>
       <c r="D4">
-        <v>0.2062751049706151</v>
+        <v>0.2637629761289304</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.097949504711295</v>
+        <v>1.458135037726933</v>
       </c>
       <c r="G4">
-        <v>0.7248303563395382</v>
+        <v>0.7950871167749227</v>
       </c>
       <c r="H4">
-        <v>0.4683264519740789</v>
+        <v>0.8441741054577676</v>
       </c>
       <c r="I4">
-        <v>0.3137781203169148</v>
+        <v>0.5804232672984675</v>
       </c>
       <c r="J4">
-        <v>0.3603821009136823</v>
+        <v>0.3303880654075186</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6222489362118004</v>
+        <v>1.047532604180645</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.210604425611336</v>
+        <v>0.8941664184201841</v>
       </c>
       <c r="C5">
-        <v>0.7238232053404658</v>
+        <v>0.2543184456173719</v>
       </c>
       <c r="D5">
-        <v>0.1994538183068499</v>
+        <v>0.2623078126727165</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.069533795262615</v>
+        <v>1.454608854962544</v>
       </c>
       <c r="G5">
-        <v>0.7041053871056988</v>
+        <v>0.7921156237053282</v>
       </c>
       <c r="H5">
-        <v>0.4608575459248669</v>
+        <v>0.8443853366069476</v>
       </c>
       <c r="I5">
-        <v>0.3109425794373912</v>
+        <v>0.5814606556403561</v>
       </c>
       <c r="J5">
-        <v>0.3474364494114042</v>
+        <v>0.3276799150211502</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6305664170589367</v>
+        <v>1.050924881274813</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.194506971789053</v>
+        <v>0.8895570208416075</v>
       </c>
       <c r="C6">
-        <v>0.7185133646808879</v>
+        <v>0.2527976261742708</v>
       </c>
       <c r="D6">
-        <v>0.1983241223288701</v>
+        <v>0.2620678266611094</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.064854562474181</v>
+        <v>1.454039397328174</v>
       </c>
       <c r="G6">
-        <v>0.7006944236850927</v>
+        <v>0.7916329164419977</v>
       </c>
       <c r="H6">
-        <v>0.459634848092918</v>
+        <v>0.8444285804205407</v>
       </c>
       <c r="I6">
-        <v>0.3104876226531985</v>
+        <v>0.5816396729329583</v>
       </c>
       <c r="J6">
-        <v>0.3452958646006437</v>
+        <v>0.3272334983921752</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6319634118224009</v>
+        <v>1.051495400821256</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.306333615685219</v>
+        <v>0.9215682872265347</v>
       </c>
       <c r="C7">
-        <v>0.7554077866396085</v>
+        <v>0.2633569846887553</v>
       </c>
       <c r="D7">
-        <v>0.2061829078771069</v>
+        <v>0.2637432411925005</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.097563616320031</v>
+        <v>1.458086405072549</v>
       </c>
       <c r="G7">
-        <v>0.7245487828233621</v>
+        <v>0.7950463238387897</v>
       </c>
       <c r="H7">
-        <v>0.4682245355459571</v>
+        <v>0.8441764063784518</v>
       </c>
       <c r="I7">
-        <v>0.3137388019179141</v>
+        <v>0.5804368044772019</v>
       </c>
       <c r="J7">
-        <v>0.3602068946511849</v>
+        <v>0.3303513230157051</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6223600376106617</v>
+        <v>1.047577868608492</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.802530354422004</v>
+        <v>1.063243643365865</v>
       </c>
       <c r="C8">
-        <v>0.9193394976798288</v>
+        <v>0.3100326186583686</v>
       </c>
       <c r="D8">
-        <v>0.2413334242854859</v>
+        <v>0.2713748765025628</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.248020941876007</v>
+        <v>1.478285580746416</v>
       </c>
       <c r="G8">
-        <v>0.8345812033152527</v>
+        <v>0.8116714989894405</v>
       </c>
       <c r="H8">
-        <v>0.5088350972168598</v>
+        <v>0.8442530453320813</v>
       </c>
       <c r="I8">
-        <v>0.3305344401865682</v>
+        <v>0.5761140488638361</v>
       </c>
       <c r="J8">
-        <v>0.4274449275296064</v>
+        <v>0.3445863176967805</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5823611113501812</v>
+        <v>1.031342504390274</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.790020750179167</v>
+        <v>1.342539431794535</v>
       </c>
       <c r="C9">
-        <v>1.24672992156809</v>
+        <v>0.4018543644489228</v>
       </c>
       <c r="D9">
-        <v>0.3123754352393036</v>
+        <v>0.2871947701663657</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.569552624296804</v>
+        <v>1.526369994461476</v>
       </c>
       <c r="G9">
-        <v>1.07117791134732</v>
+        <v>0.8499530057626714</v>
       </c>
       <c r="H9">
-        <v>0.5998998743788206</v>
+        <v>0.8486991842206351</v>
       </c>
       <c r="I9">
-        <v>0.37374702649781</v>
+        <v>0.571204639797493</v>
       </c>
       <c r="J9">
-        <v>0.5658107883059103</v>
+        <v>0.3742305264130863</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5132057724899113</v>
+        <v>1.003288247185537</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.529305204893319</v>
+        <v>1.548639413767887</v>
       </c>
       <c r="C10">
-        <v>1.492887842780135</v>
+        <v>0.4695073440162219</v>
       </c>
       <c r="D10">
-        <v>0.3663032330441354</v>
+        <v>0.2993381918975473</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.826664603020561</v>
+        <v>1.566928962198574</v>
       </c>
       <c r="G10">
-        <v>1.261581650005809</v>
+        <v>0.8816056427920671</v>
       </c>
       <c r="H10">
-        <v>0.6755637117210824</v>
+        <v>0.8546065499545819</v>
       </c>
       <c r="I10">
-        <v>0.4133051429120229</v>
+        <v>0.5697981136392301</v>
       </c>
       <c r="J10">
-        <v>0.6728631684763542</v>
+        <v>0.397082964746815</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4688180436973681</v>
+        <v>0.9849855957703753</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.869857700574528</v>
+        <v>1.642597921449067</v>
       </c>
       <c r="C11">
-        <v>1.606599363074281</v>
+        <v>0.5003295612153806</v>
       </c>
       <c r="D11">
-        <v>0.3913242045743459</v>
+        <v>0.3049756481985355</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.949346923741331</v>
+        <v>1.586530820022247</v>
       </c>
       <c r="G11">
-        <v>1.352767950634927</v>
+        <v>0.8967854275081208</v>
       </c>
       <c r="H11">
-        <v>0.7123337885989542</v>
+        <v>0.8578722846403082</v>
       </c>
       <c r="I11">
-        <v>0.4333809483454516</v>
+        <v>0.5696416417728685</v>
       </c>
       <c r="J11">
-        <v>0.7230928911826169</v>
+        <v>0.4077162794485076</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4502078331003858</v>
+        <v>0.9771612401210703</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.999541822434651</v>
+        <v>1.678206434838103</v>
       </c>
       <c r="C12">
-        <v>1.649955444058548</v>
+        <v>0.5120079625346534</v>
       </c>
       <c r="D12">
-        <v>0.4008796506554404</v>
+        <v>0.307126680047304</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.996736441063874</v>
+        <v>1.594120171200302</v>
       </c>
       <c r="G12">
-        <v>1.388045452526399</v>
+        <v>0.9026469793456613</v>
       </c>
       <c r="H12">
-        <v>0.72663739058072</v>
+        <v>0.8591924831536915</v>
       </c>
       <c r="I12">
-        <v>0.4413181963046213</v>
+        <v>0.5696523444796568</v>
       </c>
       <c r="J12">
-        <v>0.7423672029887598</v>
+        <v>0.4117772952157566</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4434058120774438</v>
+        <v>0.9742705761679957</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.971577876636047</v>
+        <v>1.670536248818223</v>
       </c>
       <c r="C13">
-        <v>1.640603970092229</v>
+        <v>0.5094925119031473</v>
       </c>
       <c r="D13">
-        <v>0.39881795704963</v>
+        <v>0.3066626949430429</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.986486918559351</v>
+        <v>1.592478245350961</v>
       </c>
       <c r="G13">
-        <v>1.38041304197381</v>
+        <v>0.9013795341849402</v>
       </c>
       <c r="H13">
-        <v>0.7235392618248966</v>
+        <v>0.8589044338005749</v>
       </c>
       <c r="I13">
-        <v>0.4395932595464416</v>
+        <v>0.5696469210197321</v>
       </c>
       <c r="J13">
-        <v>0.7382042956603101</v>
+        <v>0.4109011485536485</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4448595389061083</v>
+        <v>0.9748899170824714</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.880511682482393</v>
+        <v>1.6455268885544</v>
       </c>
       <c r="C14">
-        <v>1.61016007495823</v>
+        <v>0.5012902160689237</v>
       </c>
       <c r="D14">
-        <v>0.392108659984757</v>
+        <v>0.3051522895039227</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.953226330906986</v>
+        <v>1.587151856863628</v>
       </c>
       <c r="G14">
-        <v>1.355654726693274</v>
+        <v>0.8972653844471381</v>
       </c>
       <c r="H14">
-        <v>0.7135026930880315</v>
+        <v>0.8579792219350679</v>
       </c>
       <c r="I14">
-        <v>0.4340270187059971</v>
+        <v>0.5696411177089473</v>
       </c>
       <c r="J14">
-        <v>0.7246733181753626</v>
+        <v>0.4080496906424003</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4496432032097744</v>
+        <v>0.976921974762611</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.824828905427637</v>
+        <v>1.630211620769785</v>
       </c>
       <c r="C15">
-        <v>1.591552335729773</v>
+        <v>0.4962669453414605</v>
       </c>
       <c r="D15">
-        <v>0.3880098341586518</v>
+        <v>0.3042292372467443</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.932978141667718</v>
+        <v>1.583911009643757</v>
       </c>
       <c r="G15">
-        <v>1.340589688786878</v>
+        <v>0.8947601336838602</v>
       </c>
       <c r="H15">
-        <v>0.707405747263806</v>
+        <v>0.8574233923905297</v>
       </c>
       <c r="I15">
-        <v>0.4306622852289124</v>
+        <v>0.569646686588257</v>
       </c>
       <c r="J15">
-        <v>0.7164192541822274</v>
+        <v>0.4063075787382076</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4526058336376479</v>
+        <v>0.9781760814476641</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.507144204575809</v>
+        <v>1.542503023693371</v>
       </c>
       <c r="C16">
-        <v>1.485495283034538</v>
+        <v>0.4674939763743851</v>
       </c>
       <c r="D16">
-        <v>0.364678742938537</v>
+        <v>0.298972047474777</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.818771261200155</v>
+        <v>1.5656711874975</v>
       </c>
       <c r="G16">
-        <v>1.255721861491708</v>
+        <v>0.8806294071304137</v>
       </c>
       <c r="H16">
-        <v>0.6732114511488021</v>
+        <v>0.85440479664598</v>
       </c>
       <c r="I16">
-        <v>0.4120379846421187</v>
+        <v>0.5698181042039252</v>
       </c>
       <c r="J16">
-        <v>0.6696141060922258</v>
+        <v>0.3963928547140085</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4700675783191173</v>
+        <v>0.9855070395028918</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.313419972282361</v>
+        <v>1.488748050397987</v>
       </c>
       <c r="C17">
-        <v>1.420908281512766</v>
+        <v>0.4498546130399177</v>
       </c>
       <c r="D17">
-        <v>0.3504980514833136</v>
+        <v>0.2957759278976511</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.750248784732435</v>
+        <v>1.554777242381249</v>
       </c>
       <c r="G17">
-        <v>1.204889955039874</v>
+        <v>0.8721613750870461</v>
       </c>
       <c r="H17">
-        <v>0.6528645605276324</v>
+        <v>0.8527013915969235</v>
       </c>
       <c r="I17">
-        <v>0.4011697973514146</v>
+        <v>0.5700473824343604</v>
       </c>
       <c r="J17">
-        <v>0.6413153344298337</v>
+        <v>0.3903715242232124</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4811970861267838</v>
+        <v>0.9901329018281189</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.202387322372658</v>
+        <v>1.457848719491665</v>
       </c>
       <c r="C18">
-        <v>1.383919578296741</v>
+        <v>0.4397132975601608</v>
       </c>
       <c r="D18">
-        <v>0.342387040568596</v>
+        <v>0.2939482767028352</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.711367719622572</v>
+        <v>1.54861964719629</v>
       </c>
       <c r="G18">
-        <v>1.176077085871611</v>
+        <v>0.8673642226362119</v>
       </c>
       <c r="H18">
-        <v>0.641380044270079</v>
+        <v>0.8517760624939115</v>
       </c>
       <c r="I18">
-        <v>0.3951121921003207</v>
+        <v>0.5702247267779015</v>
       </c>
       <c r="J18">
-        <v>0.6251805466209248</v>
+        <v>0.3869305661481093</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4877462267197927</v>
+        <v>0.9928407820974101</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.164857709224862</v>
+        <v>1.447390039317042</v>
       </c>
       <c r="C19">
-        <v>1.371421982020024</v>
+        <v>0.4362803745587485</v>
       </c>
       <c r="D19">
-        <v>0.3396482857498171</v>
+        <v>0.2933312999399078</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.698291343464675</v>
+        <v>1.546553364366616</v>
       </c>
       <c r="G19">
-        <v>1.166391827481107</v>
+        <v>0.8657525711068388</v>
       </c>
       <c r="H19">
-        <v>0.6375279103654918</v>
+        <v>0.8514720986100315</v>
       </c>
       <c r="I19">
-        <v>0.393093391761667</v>
+        <v>0.5702925683520164</v>
       </c>
       <c r="J19">
-        <v>0.6197410045100185</v>
+        <v>0.385769348572822</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4899885144406326</v>
+        <v>0.9937657281068368</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.334000851941994</v>
+        <v>1.494468386339747</v>
       </c>
       <c r="C20">
-        <v>1.42776679289301</v>
+        <v>0.4517319000647149</v>
       </c>
       <c r="D20">
-        <v>0.3520028462808824</v>
+        <v>0.2961150561143313</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.757487378540048</v>
+        <v>1.555925704266514</v>
       </c>
       <c r="G20">
-        <v>1.210256563162517</v>
+        <v>0.8730552039435793</v>
       </c>
       <c r="H20">
-        <v>0.6550076226663464</v>
+        <v>0.8528770867015112</v>
       </c>
       <c r="I20">
-        <v>0.4023064615835068</v>
+        <v>0.5700182662235207</v>
       </c>
       <c r="J20">
-        <v>0.6443128698120404</v>
+        <v>0.3910101900573295</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4799969170483962</v>
+        <v>0.9896355843625813</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.907239409811552</v>
+        <v>1.652871976597851</v>
       </c>
       <c r="C21">
-        <v>1.619093752595859</v>
+        <v>0.5036992473790747</v>
       </c>
       <c r="D21">
-        <v>0.3940770700245366</v>
+        <v>0.3055954915841141</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.96296953396832</v>
+        <v>1.588711818174843</v>
       </c>
       <c r="G21">
-        <v>1.362905799565766</v>
+        <v>0.8984707270105048</v>
       </c>
       <c r="H21">
-        <v>0.7164400213166857</v>
+        <v>0.8582487090969266</v>
       </c>
       <c r="I21">
-        <v>0.4356525635193051</v>
+        <v>0.5696409201336436</v>
       </c>
       <c r="J21">
-        <v>0.7286405335630946</v>
+        <v>0.4088862971411231</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.448231318265023</v>
+        <v>0.9763231483481647</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.286167359778574</v>
+        <v>1.756563499613776</v>
       </c>
       <c r="C22">
-        <v>1.745887918127323</v>
+        <v>0.5377019512721972</v>
       </c>
       <c r="D22">
-        <v>0.4220500774754328</v>
+        <v>0.3118861961509367</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.102758357596457</v>
+        <v>1.611110700984781</v>
       </c>
       <c r="G22">
-        <v>1.467075253331501</v>
+        <v>0.9157420952181496</v>
       </c>
       <c r="H22">
-        <v>0.7588247189770527</v>
+        <v>0.8622464525027738</v>
       </c>
       <c r="I22">
-        <v>0.4594180760820521</v>
+        <v>0.5698022649393195</v>
       </c>
       <c r="J22">
-        <v>0.785248769880738</v>
+        <v>0.4207700491824085</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4289097986451154</v>
+        <v>0.968043888440782</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.083493708647495</v>
+        <v>1.701206444988941</v>
       </c>
       <c r="C23">
-        <v>1.678038404345159</v>
+        <v>0.5195504935526287</v>
       </c>
       <c r="D23">
-        <v>0.4070732079554773</v>
+        <v>0.3085200807819319</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.027608287242785</v>
+        <v>1.599066797204515</v>
       </c>
       <c r="G23">
-        <v>1.411042752211642</v>
+        <v>0.9064632365795262</v>
       </c>
       <c r="H23">
-        <v>0.7359837548330006</v>
+        <v>0.8600680953794324</v>
       </c>
       <c r="I23">
-        <v>0.4465407147916309</v>
+        <v>0.569678674884166</v>
       </c>
       <c r="J23">
-        <v>0.7548870998155195</v>
+        <v>0.4144090245785037</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4390840313758133</v>
+        <v>0.972424105719746</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.324695179436617</v>
+        <v>1.491882206464709</v>
       </c>
       <c r="C24">
-        <v>1.424665617256039</v>
+        <v>0.4508831792612114</v>
       </c>
       <c r="D24">
-        <v>0.3513223995590522</v>
+        <v>0.2959617055928589</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.754213219242033</v>
+        <v>1.55540615616701</v>
       </c>
       <c r="G24">
-        <v>1.20782904591718</v>
+        <v>0.87265088211538</v>
       </c>
       <c r="H24">
-        <v>0.6540380833489223</v>
+        <v>0.8527974868233628</v>
       </c>
       <c r="I24">
-        <v>0.4017919844783293</v>
+        <v>0.5700312878764393</v>
       </c>
       <c r="J24">
-        <v>0.642957267429253</v>
+        <v>0.390721384512787</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4805390456065908</v>
+        <v>0.9898602708016568</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.520846870646494</v>
+        <v>1.266824619137935</v>
       </c>
       <c r="C25">
-        <v>1.157332159696466</v>
+        <v>0.376981551582503</v>
       </c>
       <c r="D25">
-        <v>0.2928871028341717</v>
+        <v>0.2828236429634501</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.479271912208276</v>
+        <v>1.512447963139905</v>
       </c>
       <c r="G25">
-        <v>1.004563915517622</v>
+        <v>0.838982128427844</v>
       </c>
       <c r="H25">
-        <v>0.5738660961639681</v>
+        <v>0.8470342326250488</v>
       </c>
       <c r="I25">
-        <v>0.3608057045814164</v>
+        <v>0.5721482055093503</v>
       </c>
       <c r="J25">
-        <v>0.5275431487975055</v>
+        <v>0.3660239290496605</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5308459028592125</v>
+        <v>1.010472419256288</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_79/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.101729968414588</v>
+        <v>2.937784329581802</v>
       </c>
       <c r="C2">
-        <v>0.3226985537384337</v>
+        <v>0.964089412315559</v>
       </c>
       <c r="D2">
-        <v>0.2735004925934419</v>
+        <v>0.2509852670602726</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.484329595726805</v>
+        <v>1.290418923032533</v>
       </c>
       <c r="G2">
-        <v>0.8165580542823108</v>
+        <v>0.865671888526748</v>
       </c>
       <c r="H2">
-        <v>0.8445637225456437</v>
+        <v>0.5205510532623947</v>
       </c>
       <c r="I2">
-        <v>0.5751832815021061</v>
+        <v>0.3357281184915948</v>
       </c>
       <c r="J2">
-        <v>0.3485596430322886</v>
+        <v>0.4460555725226385</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.02719948783637</v>
+        <v>0.5721256852364007</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9902222696572949</v>
+        <v>2.546486179883289</v>
       </c>
       <c r="C3">
-        <v>0.2859861336109759</v>
+        <v>0.8347022409084275</v>
       </c>
       <c r="D3">
-        <v>0.2674005364426364</v>
+        <v>0.2231415497712703</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.467441684983953</v>
+        <v>1.169343332940343</v>
       </c>
       <c r="G3">
-        <v>0.8028150664091243</v>
+        <v>0.7769823454175793</v>
       </c>
       <c r="H3">
-        <v>0.8439880063391456</v>
+        <v>0.4873932624969939</v>
       </c>
       <c r="I3">
-        <v>0.5781526834932151</v>
+        <v>0.3214053581601632</v>
       </c>
       <c r="J3">
-        <v>0.3371667947527044</v>
+        <v>0.3925381515107347</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.039502143921151</v>
+        <v>0.6024954848599222</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9219430868801624</v>
+        <v>2.307643415115933</v>
       </c>
       <c r="C4">
-        <v>0.2634805851665192</v>
+        <v>0.7558400300676169</v>
       </c>
       <c r="D4">
-        <v>0.2637629761289304</v>
+        <v>0.206275104970743</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.458135037726933</v>
+        <v>1.097949504711295</v>
       </c>
       <c r="G4">
-        <v>0.7950871167749227</v>
+        <v>0.7248303563394956</v>
       </c>
       <c r="H4">
-        <v>0.8441741054577676</v>
+        <v>0.4683264519741925</v>
       </c>
       <c r="I4">
-        <v>0.5804232672984675</v>
+        <v>0.3137781203169254</v>
       </c>
       <c r="J4">
-        <v>0.3303880654075186</v>
+        <v>0.3603821009136681</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.047532604180645</v>
+        <v>0.6222489362118573</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8941664184201841</v>
+        <v>2.210604425611336</v>
       </c>
       <c r="C5">
-        <v>0.2543184456173719</v>
+        <v>0.7238232053404658</v>
       </c>
       <c r="D5">
-        <v>0.2623078126727165</v>
+        <v>0.1994538183067363</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.454608854962544</v>
+        <v>1.069533795262615</v>
       </c>
       <c r="G5">
-        <v>0.7921156237053282</v>
+        <v>0.7041053871057272</v>
       </c>
       <c r="H5">
-        <v>0.8443853366069476</v>
+        <v>0.4608575459248669</v>
       </c>
       <c r="I5">
-        <v>0.5814606556403561</v>
+        <v>0.3109425794373948</v>
       </c>
       <c r="J5">
-        <v>0.3276799150211502</v>
+        <v>0.34743644941139</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.050924881274813</v>
+        <v>0.6305664170589367</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8895570208416075</v>
+        <v>2.194506971788996</v>
       </c>
       <c r="C6">
-        <v>0.2527976261742708</v>
+        <v>0.7185133646809163</v>
       </c>
       <c r="D6">
-        <v>0.2620678266611094</v>
+        <v>0.1983241223289269</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.454039397328174</v>
+        <v>1.064854562474167</v>
       </c>
       <c r="G6">
-        <v>0.7916329164419977</v>
+        <v>0.7006944236851353</v>
       </c>
       <c r="H6">
-        <v>0.8444285804205407</v>
+        <v>0.4596348480930459</v>
       </c>
       <c r="I6">
-        <v>0.5816396729329583</v>
+        <v>0.3104876226532127</v>
       </c>
       <c r="J6">
-        <v>0.3272334983921752</v>
+        <v>0.345295864600601</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.051495400821256</v>
+        <v>0.6319634118223902</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9215682872265347</v>
+        <v>2.306333615685389</v>
       </c>
       <c r="C7">
-        <v>0.2633569846887553</v>
+        <v>0.7554077866397506</v>
       </c>
       <c r="D7">
-        <v>0.2637432411925005</v>
+        <v>0.2061829078769222</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.458086405072549</v>
+        <v>1.097563616320031</v>
       </c>
       <c r="G7">
-        <v>0.7950463238387897</v>
+        <v>0.7245487828234332</v>
       </c>
       <c r="H7">
-        <v>0.8441764063784518</v>
+        <v>0.468224535545815</v>
       </c>
       <c r="I7">
-        <v>0.5804368044772019</v>
+        <v>0.3137388019178928</v>
       </c>
       <c r="J7">
-        <v>0.3303513230157051</v>
+        <v>0.3602068946511849</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.047577868608492</v>
+        <v>0.6223600376106369</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.063243643365865</v>
+        <v>2.802530354422117</v>
       </c>
       <c r="C8">
-        <v>0.3100326186583686</v>
+        <v>0.9193394976799425</v>
       </c>
       <c r="D8">
-        <v>0.2713748765025628</v>
+        <v>0.2413334242854717</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.478285580746416</v>
+        <v>1.248020941876007</v>
       </c>
       <c r="G8">
-        <v>0.8116714989894405</v>
+        <v>0.8345812033152527</v>
       </c>
       <c r="H8">
-        <v>0.8442530453320813</v>
+        <v>0.5088350972168882</v>
       </c>
       <c r="I8">
-        <v>0.5761140488638361</v>
+        <v>0.3305344401865824</v>
       </c>
       <c r="J8">
-        <v>0.3445863176967805</v>
+        <v>0.4274449275294927</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.031342504390274</v>
+        <v>0.5823611113501741</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.342539431794535</v>
+        <v>3.79002075017911</v>
       </c>
       <c r="C9">
-        <v>0.4018543644489228</v>
+        <v>1.246729921568033</v>
       </c>
       <c r="D9">
-        <v>0.2871947701663657</v>
+        <v>0.312375435239403</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.526369994461476</v>
+        <v>1.56955262429679</v>
       </c>
       <c r="G9">
-        <v>0.8499530057626714</v>
+        <v>1.071177911347235</v>
       </c>
       <c r="H9">
-        <v>0.8486991842206351</v>
+        <v>0.5998998743789343</v>
       </c>
       <c r="I9">
-        <v>0.571204639797493</v>
+        <v>0.37374702649781</v>
       </c>
       <c r="J9">
-        <v>0.3742305264130863</v>
+        <v>0.5658107883057681</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.003288247185537</v>
+        <v>0.5132057724898971</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.548639413767887</v>
+        <v>4.529305204893376</v>
       </c>
       <c r="C10">
-        <v>0.4695073440162219</v>
+        <v>1.492887842779908</v>
       </c>
       <c r="D10">
-        <v>0.2993381918975473</v>
+        <v>0.3663032330442064</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.566928962198574</v>
+        <v>1.826664603020603</v>
       </c>
       <c r="G10">
-        <v>0.8816056427920671</v>
+        <v>1.261581650005837</v>
       </c>
       <c r="H10">
-        <v>0.8546065499545819</v>
+        <v>0.6755637117211108</v>
       </c>
       <c r="I10">
-        <v>0.5697981136392301</v>
+        <v>0.41330514291203</v>
       </c>
       <c r="J10">
-        <v>0.397082964746815</v>
+        <v>0.6728631684763968</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9849855957703753</v>
+        <v>0.4688180436973539</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.642597921449067</v>
+        <v>4.869857700574585</v>
       </c>
       <c r="C11">
-        <v>0.5003295612153806</v>
+        <v>1.606599363074167</v>
       </c>
       <c r="D11">
-        <v>0.3049756481985355</v>
+        <v>0.3913242045742322</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.586530820022247</v>
+        <v>1.949346923741345</v>
       </c>
       <c r="G11">
-        <v>0.8967854275081208</v>
+        <v>1.352767950634927</v>
       </c>
       <c r="H11">
-        <v>0.8578722846403082</v>
+        <v>0.7123337885990679</v>
       </c>
       <c r="I11">
-        <v>0.5696416417728685</v>
+        <v>0.4333809483454729</v>
       </c>
       <c r="J11">
-        <v>0.4077162794485076</v>
+        <v>0.7230928911827306</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9771612401210703</v>
+        <v>0.4502078331004498</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.678206434838103</v>
+        <v>4.999541822434708</v>
       </c>
       <c r="C12">
-        <v>0.5120079625346534</v>
+        <v>1.649955444058435</v>
       </c>
       <c r="D12">
-        <v>0.307126680047304</v>
+        <v>0.4008796506555257</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.594120171200302</v>
+        <v>1.996736441063902</v>
       </c>
       <c r="G12">
-        <v>0.9026469793456613</v>
+        <v>1.388045452526427</v>
       </c>
       <c r="H12">
-        <v>0.8591924831536915</v>
+        <v>0.72663739058072</v>
       </c>
       <c r="I12">
-        <v>0.5696523444796568</v>
+        <v>0.4413181963046071</v>
       </c>
       <c r="J12">
-        <v>0.4117772952157566</v>
+        <v>0.7423672029886745</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9742705761679957</v>
+        <v>0.4434058120774367</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.670536248818223</v>
+        <v>4.971577876635877</v>
       </c>
       <c r="C13">
-        <v>0.5094925119031473</v>
+        <v>1.640603970092116</v>
       </c>
       <c r="D13">
-        <v>0.3066626949430429</v>
+        <v>0.39881795704963</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.592478245350961</v>
+        <v>1.986486918559351</v>
       </c>
       <c r="G13">
-        <v>0.9013795341849402</v>
+        <v>1.380413041973782</v>
       </c>
       <c r="H13">
-        <v>0.8589044338005749</v>
+        <v>0.7235392618248966</v>
       </c>
       <c r="I13">
-        <v>0.5696469210197321</v>
+        <v>0.4395932595464487</v>
       </c>
       <c r="J13">
-        <v>0.4109011485536485</v>
+        <v>0.7382042956602959</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9748899170824714</v>
+        <v>0.4448595389061722</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.6455268885544</v>
+        <v>4.880511682482563</v>
       </c>
       <c r="C14">
-        <v>0.5012902160689237</v>
+        <v>1.61016007495823</v>
       </c>
       <c r="D14">
-        <v>0.3051522895039227</v>
+        <v>0.392108659984757</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.587151856863628</v>
+        <v>1.953226330907</v>
       </c>
       <c r="G14">
-        <v>0.8972653844471381</v>
+        <v>1.355654726693189</v>
       </c>
       <c r="H14">
-        <v>0.8579792219350679</v>
+        <v>0.7135026930881452</v>
       </c>
       <c r="I14">
-        <v>0.5696411177089473</v>
+        <v>0.4340270187060113</v>
       </c>
       <c r="J14">
-        <v>0.4080496906424003</v>
+        <v>0.7246733181753484</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.976921974762611</v>
+        <v>0.4496432032097104</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.630211620769785</v>
+        <v>4.824828905427637</v>
       </c>
       <c r="C15">
-        <v>0.4962669453414605</v>
+        <v>1.591552335729943</v>
       </c>
       <c r="D15">
-        <v>0.3042292372467443</v>
+        <v>0.388009834158737</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.583911009643757</v>
+        <v>1.932978141667718</v>
       </c>
       <c r="G15">
-        <v>0.8947601336838602</v>
+        <v>1.340589688786906</v>
       </c>
       <c r="H15">
-        <v>0.8574233923905297</v>
+        <v>0.7074057472638344</v>
       </c>
       <c r="I15">
-        <v>0.569646686588257</v>
+        <v>0.4306622852288982</v>
       </c>
       <c r="J15">
-        <v>0.4063075787382076</v>
+        <v>0.7164192541823837</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9781760814476641</v>
+        <v>0.4526058336376266</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.542503023693371</v>
+        <v>4.507144204576036</v>
       </c>
       <c r="C16">
-        <v>0.4674939763743851</v>
+        <v>1.485495283034766</v>
       </c>
       <c r="D16">
-        <v>0.298972047474777</v>
+        <v>0.3646787429383522</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.5656711874975</v>
+        <v>1.818771261200183</v>
       </c>
       <c r="G16">
-        <v>0.8806294071304137</v>
+        <v>1.255721861491651</v>
       </c>
       <c r="H16">
-        <v>0.85440479664598</v>
+        <v>0.6732114511488021</v>
       </c>
       <c r="I16">
-        <v>0.5698181042039252</v>
+        <v>0.4120379846421329</v>
       </c>
       <c r="J16">
-        <v>0.3963928547140085</v>
+        <v>0.6696141060921974</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9855070395028918</v>
+        <v>0.4700675783191031</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.488748050397987</v>
+        <v>4.313419972282475</v>
       </c>
       <c r="C17">
-        <v>0.4498546130399177</v>
+        <v>1.420908281512936</v>
       </c>
       <c r="D17">
-        <v>0.2957759278976511</v>
+        <v>0.3504980514834131</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.554777242381249</v>
+        <v>1.750248784732449</v>
       </c>
       <c r="G17">
-        <v>0.8721613750870461</v>
+        <v>1.204889955039846</v>
       </c>
       <c r="H17">
-        <v>0.8527013915969235</v>
+        <v>0.6528645605276324</v>
       </c>
       <c r="I17">
-        <v>0.5700473824343604</v>
+        <v>0.4011697973514288</v>
       </c>
       <c r="J17">
-        <v>0.3903715242232124</v>
+        <v>0.6413153344298053</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9901329018281189</v>
+        <v>0.4811970861268335</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.457848719491665</v>
+        <v>4.202387322372658</v>
       </c>
       <c r="C18">
-        <v>0.4397132975601608</v>
+        <v>1.383919578296968</v>
       </c>
       <c r="D18">
-        <v>0.2939482767028352</v>
+        <v>0.3423870405687239</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.54861964719629</v>
+        <v>1.711367719622572</v>
       </c>
       <c r="G18">
-        <v>0.8673642226362119</v>
+        <v>1.176077085871668</v>
       </c>
       <c r="H18">
-        <v>0.8517760624939115</v>
+        <v>0.6413800442700506</v>
       </c>
       <c r="I18">
-        <v>0.5702247267779015</v>
+        <v>0.3951121921003136</v>
       </c>
       <c r="J18">
-        <v>0.3869305661481093</v>
+        <v>0.6251805466209106</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9928407820974101</v>
+        <v>0.4877462267197785</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.447390039317042</v>
+        <v>4.164857709224975</v>
       </c>
       <c r="C19">
-        <v>0.4362803745587485</v>
+        <v>1.371421982019854</v>
       </c>
       <c r="D19">
-        <v>0.2933312999399078</v>
+        <v>0.3396482857499308</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.546553364366616</v>
+        <v>1.698291343464675</v>
       </c>
       <c r="G19">
-        <v>0.8657525711068388</v>
+        <v>1.16639182748105</v>
       </c>
       <c r="H19">
-        <v>0.8514720986100315</v>
+        <v>0.6375279103656055</v>
       </c>
       <c r="I19">
-        <v>0.5702925683520164</v>
+        <v>0.3930933917616599</v>
       </c>
       <c r="J19">
-        <v>0.385769348572822</v>
+        <v>0.61974100450999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9937657281068368</v>
+        <v>0.4899885144405829</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.494468386339747</v>
+        <v>4.334000851941994</v>
       </c>
       <c r="C20">
-        <v>0.4517319000647149</v>
+        <v>1.427766792893181</v>
       </c>
       <c r="D20">
-        <v>0.2961150561143313</v>
+        <v>0.3520028462810103</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.555925704266514</v>
+        <v>1.757487378540048</v>
       </c>
       <c r="G20">
-        <v>0.8730552039435793</v>
+        <v>1.210256563162545</v>
       </c>
       <c r="H20">
-        <v>0.8528770867015112</v>
+        <v>0.6550076226663464</v>
       </c>
       <c r="I20">
-        <v>0.5700182662235207</v>
+        <v>0.4023064615835068</v>
       </c>
       <c r="J20">
-        <v>0.3910101900573295</v>
+        <v>0.6443128698121114</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9896355843625813</v>
+        <v>0.4799969170484104</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.652871976597851</v>
+        <v>4.907239409811552</v>
       </c>
       <c r="C21">
-        <v>0.5036992473790747</v>
+        <v>1.619093752596086</v>
       </c>
       <c r="D21">
-        <v>0.3055954915841141</v>
+        <v>0.3940770700243377</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.588711818174843</v>
+        <v>1.96296953396832</v>
       </c>
       <c r="G21">
-        <v>0.8984707270105048</v>
+        <v>1.362905799565766</v>
       </c>
       <c r="H21">
-        <v>0.8582487090969266</v>
+        <v>0.7164400213166573</v>
       </c>
       <c r="I21">
-        <v>0.5696409201336436</v>
+        <v>0.4356525635193051</v>
       </c>
       <c r="J21">
-        <v>0.4088862971411231</v>
+        <v>0.7286405335630519</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9763231483481647</v>
+        <v>0.448231318265023</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.756563499613776</v>
+        <v>5.286167359778688</v>
       </c>
       <c r="C22">
-        <v>0.5377019512721972</v>
+        <v>1.745887918127551</v>
       </c>
       <c r="D22">
-        <v>0.3118861961509367</v>
+        <v>0.422050077475518</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.611110700984781</v>
+        <v>2.102758357596443</v>
       </c>
       <c r="G22">
-        <v>0.9157420952181496</v>
+        <v>1.467075253331473</v>
       </c>
       <c r="H22">
-        <v>0.8622464525027738</v>
+        <v>0.7588247189770527</v>
       </c>
       <c r="I22">
-        <v>0.5698022649393195</v>
+        <v>0.4594180760820379</v>
       </c>
       <c r="J22">
-        <v>0.4207700491824085</v>
+        <v>0.7852487698808517</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.968043888440782</v>
+        <v>0.4289097986451225</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.701206444988941</v>
+        <v>5.083493708647325</v>
       </c>
       <c r="C23">
-        <v>0.5195504935526287</v>
+        <v>1.678038404345273</v>
       </c>
       <c r="D23">
-        <v>0.3085200807819319</v>
+        <v>0.4070732079552499</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.599066797204515</v>
+        <v>2.027608287242771</v>
       </c>
       <c r="G23">
-        <v>0.9064632365795262</v>
+        <v>1.411042752211642</v>
       </c>
       <c r="H23">
-        <v>0.8600680953794324</v>
+        <v>0.7359837548331143</v>
       </c>
       <c r="I23">
-        <v>0.569678674884166</v>
+        <v>0.4465407147916096</v>
       </c>
       <c r="J23">
-        <v>0.4144090245785037</v>
+        <v>0.7548870998155053</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.972424105719746</v>
+        <v>0.4390840313757849</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.491882206464709</v>
+        <v>4.32469517943656</v>
       </c>
       <c r="C24">
-        <v>0.4508831792612114</v>
+        <v>1.424665617256096</v>
       </c>
       <c r="D24">
-        <v>0.2959617055928589</v>
+        <v>0.3513223995589385</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.55540615616701</v>
+        <v>1.754213219242047</v>
       </c>
       <c r="G24">
-        <v>0.87265088211538</v>
+        <v>1.20782904591718</v>
       </c>
       <c r="H24">
-        <v>0.8527974868233628</v>
+        <v>0.6540380833488086</v>
       </c>
       <c r="I24">
-        <v>0.5700312878764393</v>
+        <v>0.4017919844783151</v>
       </c>
       <c r="J24">
-        <v>0.390721384512787</v>
+        <v>0.6429572674291961</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9898602708016568</v>
+        <v>0.4805390456065837</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.266824619137935</v>
+        <v>3.520846870646665</v>
       </c>
       <c r="C25">
-        <v>0.376981551582503</v>
+        <v>1.157332159696409</v>
       </c>
       <c r="D25">
-        <v>0.2828236429634501</v>
+        <v>0.2928871028341717</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.512447963139905</v>
+        <v>1.479271912208262</v>
       </c>
       <c r="G25">
-        <v>0.838982128427844</v>
+        <v>1.004563915517551</v>
       </c>
       <c r="H25">
-        <v>0.8470342326250488</v>
+        <v>0.5738660961641671</v>
       </c>
       <c r="I25">
-        <v>0.5721482055093503</v>
+        <v>0.3608057045814093</v>
       </c>
       <c r="J25">
-        <v>0.3660239290496605</v>
+        <v>0.5275431487975055</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.010472419256288</v>
+        <v>0.5308459028592054</v>
       </c>
       <c r="O25">
         <v>0</v>
